--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Najibullah Zadran</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +869,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2476,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2772,7 +2835,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2872,7 +2934,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3284,7 +3345,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3552,7 +3612,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3604,7 +3664,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3656,7 +3716,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3708,7 +3768,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3760,7 +3820,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3812,7 +3872,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3864,7 +3924,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3916,7 +3976,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3968,7 +4028,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4008,7 +4068,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4068,7 +4127,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4120,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4172,7 +4231,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4224,7 +4283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4335,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4328,7 +4387,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4380,7 +4439,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4432,7 +4491,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4472,7 +4531,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -4480,7 +4538,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4532,7 +4590,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4584,7 +4642,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4636,7 +4694,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4688,7 +4746,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4727,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4749,7 +4807,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4786,7 +4844,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4823,7 +4881,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4849,6 +4907,569 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>0/21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18.50%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.76%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12.05%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.10%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.95%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.16%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,6 +868,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -2476,6 +2476,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2835,6 +2836,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2934,6 +2936,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3345,6 +3348,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -4068,6 +4072,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4531,6 +4536,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -4913,567 +4919,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18.50%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.76%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12.05%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.10%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.44%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.95%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>31.16%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.09%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.57%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3960.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +870,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -2476,7 +2477,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2836,7 +2836,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2936,7 +2935,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3348,7 +3346,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -4072,7 +4069,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4536,7 +4532,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -4919,4 +4914,2094 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.12%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.27%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.87%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.31%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16.90%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.49%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.21%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.54%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.18%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.60%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.34%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18.91%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.32%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.27%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>35.39%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7.98%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.08%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7.27%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>19.67%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.64%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.29%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11.50%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>18.50%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10.76%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>28.00%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>12.05%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10.10%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.95%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31.16%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>